--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:02:06+00:00</t>
+    <t>2024-11-07T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:06:45+00:00</t>
+    <t>2024-11-07T09:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:07:03+00:00</t>
+    <t>2024-11-07T09:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:34:03+00:00</t>
+    <t>2024-11-07T09:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:37:15+00:00</t>
+    <t>2024-11-13T08:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-organization.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$167</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="688">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:22:11+00:00</t>
+    <t>2024-11-13T08:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1686,6 +1689,231 @@
   </si>
   <si>
     <t>Les BALs MSS de type ORG ou APP rattachées à une personne morale responsable de l’accès et de l’usage de la BAL (boiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
+</t>
+  </si>
+  <si>
+    <t>Type of email | type de messagerie électronique</t>
+  </si>
+  <si>
+    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.extension:emailType.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="https://mos.esante.gouv.fr/NOS/TRE_R256-TypeMessagerie/FHIR/TRE-R256-TypeMessagerie"/&gt;
+  &lt;code value="MSSANTE"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-email-type</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.system</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.value</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>Boîte Aux Lettres (BAL) MSS</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.use</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom:mailbox-mss.period</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -2062,6 +2290,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -2238,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN155"/>
+  <dimension ref="A1:AN167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2410,7 +2653,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2522,7 +2765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2636,7 +2879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2748,7 +2991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2860,7 +3103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2974,7 +3217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -3088,7 +3331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -3202,7 +3445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>128</v>
       </c>
@@ -3316,7 +3559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -3430,7 +3673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3546,7 +3789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>144</v>
       </c>
@@ -3660,7 +3903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>153</v>
       </c>
@@ -3774,7 +4017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>161</v>
       </c>
@@ -3888,7 +4131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>166</v>
       </c>
@@ -4002,7 +4245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>175</v>
       </c>
@@ -4116,7 +4359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>183</v>
       </c>
@@ -4230,7 +4473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>191</v>
       </c>
@@ -4340,7 +4583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -4454,7 +4697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>200</v>
       </c>
@@ -4568,7 +4811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>204</v>
       </c>
@@ -4682,7 +4925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>208</v>
       </c>
@@ -4798,7 +5041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>213</v>
       </c>
@@ -4912,7 +5155,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>225</v>
       </c>
@@ -5024,7 +5267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -5138,7 +5381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5252,7 +5495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>236</v>
       </c>
@@ -5366,7 +5609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>245</v>
       </c>
@@ -5482,7 +5725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>255</v>
       </c>
@@ -5596,7 +5839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>264</v>
       </c>
@@ -5708,7 +5951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>272</v>
       </c>
@@ -5822,7 +6065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>281</v>
       </c>
@@ -5938,7 +6181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>284</v>
       </c>
@@ -6050,7 +6293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>285</v>
       </c>
@@ -6164,7 +6407,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>286</v>
       </c>
@@ -6280,7 +6523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>290</v>
       </c>
@@ -6396,7 +6639,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>294</v>
       </c>
@@ -6512,7 +6755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>296</v>
       </c>
@@ -6626,7 +6869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>298</v>
       </c>
@@ -6738,7 +6981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>299</v>
       </c>
@@ -6852,7 +7095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>300</v>
       </c>
@@ -6968,7 +7211,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>303</v>
       </c>
@@ -7080,7 +7323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>304</v>
       </c>
@@ -7194,7 +7437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>305</v>
       </c>
@@ -7310,7 +7553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>306</v>
       </c>
@@ -7426,7 +7669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>308</v>
       </c>
@@ -7542,7 +7785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>310</v>
       </c>
@@ -7656,7 +7899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>311</v>
       </c>
@@ -7768,7 +8011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>312</v>
       </c>
@@ -7882,7 +8125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>313</v>
       </c>
@@ -7998,7 +8241,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>316</v>
       </c>
@@ -8110,7 +8353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>317</v>
       </c>
@@ -8224,7 +8467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>318</v>
       </c>
@@ -8340,7 +8583,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>319</v>
       </c>
@@ -8456,7 +8699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>321</v>
       </c>
@@ -8572,7 +8815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>322</v>
       </c>
@@ -8686,7 +8929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>323</v>
       </c>
@@ -8798,7 +9041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>324</v>
       </c>
@@ -8912,7 +9155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>325</v>
       </c>
@@ -9028,7 +9271,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>328</v>
       </c>
@@ -9140,7 +9383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>329</v>
       </c>
@@ -9254,7 +9497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>330</v>
       </c>
@@ -9370,7 +9613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>331</v>
       </c>
@@ -9486,7 +9729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>332</v>
       </c>
@@ -9598,7 +9841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>334</v>
       </c>
@@ -9712,7 +9955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>336</v>
       </c>
@@ -9828,7 +10071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>345</v>
       </c>
@@ -9940,7 +10183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>347</v>
       </c>
@@ -10054,7 +10297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>349</v>
       </c>
@@ -10170,7 +10413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>359</v>
       </c>
@@ -10284,7 +10527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>367</v>
       </c>
@@ -10398,7 +10641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>375</v>
       </c>
@@ -10512,7 +10755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>383</v>
       </c>
@@ -10628,7 +10871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>393</v>
       </c>
@@ -10744,7 +10987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>402</v>
       </c>
@@ -10860,7 +11103,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>404</v>
       </c>
@@ -10974,7 +11217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>405</v>
       </c>
@@ -11086,7 +11329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>406</v>
       </c>
@@ -11200,7 +11443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>407</v>
       </c>
@@ -11316,7 +11559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>410</v>
       </c>
@@ -11428,7 +11671,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>411</v>
       </c>
@@ -11542,7 +11785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>412</v>
       </c>
@@ -11658,7 +11901,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
         <v>413</v>
       </c>
@@ -11774,7 +12017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>415</v>
       </c>
@@ -11890,7 +12133,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>417</v>
       </c>
@@ -12004,7 +12247,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>418</v>
       </c>
@@ -12116,7 +12359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
         <v>419</v>
       </c>
@@ -12230,7 +12473,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>420</v>
       </c>
@@ -12346,7 +12589,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>423</v>
       </c>
@@ -12458,7 +12701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>424</v>
       </c>
@@ -12572,7 +12815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>425</v>
       </c>
@@ -12688,7 +12931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>426</v>
       </c>
@@ -12804,7 +13047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>427</v>
       </c>
@@ -12920,7 +13163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>429</v>
       </c>
@@ -13034,7 +13277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
         <v>430</v>
       </c>
@@ -13146,7 +13389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>431</v>
       </c>
@@ -13260,7 +13503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>432</v>
       </c>
@@ -13378,7 +13621,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>442</v>
       </c>
@@ -13492,7 +13735,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>453</v>
       </c>
@@ -13608,7 +13851,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>456</v>
       </c>
@@ -13720,7 +13963,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>458</v>
       </c>
@@ -13834,7 +14077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
         <v>460</v>
       </c>
@@ -13950,7 +14193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>462</v>
       </c>
@@ -14062,7 +14305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>464</v>
       </c>
@@ -14176,7 +14419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
         <v>466</v>
       </c>
@@ -14292,7 +14535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
         <v>468</v>
       </c>
@@ -14406,7 +14649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>470</v>
       </c>
@@ -14520,7 +14763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
         <v>473</v>
       </c>
@@ -14634,7 +14877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>475</v>
       </c>
@@ -14750,7 +14993,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>477</v>
       </c>
@@ -14866,7 +15109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>479</v>
       </c>
@@ -14982,7 +15225,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
         <v>483</v>
       </c>
@@ -15094,7 +15337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
         <v>484</v>
       </c>
@@ -15208,7 +15451,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
         <v>485</v>
       </c>
@@ -15324,7 +15567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>486</v>
       </c>
@@ -15436,7 +15679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
         <v>487</v>
       </c>
@@ -15550,7 +15793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
         <v>488</v>
       </c>
@@ -15666,7 +15909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>489</v>
       </c>
@@ -15780,7 +16023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>490</v>
       </c>
@@ -15894,7 +16137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>491</v>
       </c>
@@ -16008,7 +16251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>492</v>
       </c>
@@ -16124,7 +16367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
         <v>493</v>
       </c>
@@ -16240,7 +16483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
         <v>494</v>
       </c>
@@ -16356,7 +16599,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
         <v>498</v>
       </c>
@@ -16468,7 +16711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
         <v>499</v>
       </c>
@@ -16582,7 +16825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
         <v>500</v>
       </c>
@@ -16698,7 +16941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
         <v>501</v>
       </c>
@@ -16810,7 +17053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
         <v>502</v>
       </c>
@@ -16924,7 +17167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>503</v>
       </c>
@@ -17040,7 +17283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>504</v>
       </c>
@@ -17154,7 +17397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>505</v>
       </c>
@@ -17268,7 +17511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
         <v>506</v>
       </c>
@@ -17382,7 +17625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
         <v>507</v>
       </c>
@@ -17498,7 +17741,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
         <v>508</v>
       </c>
@@ -17614,7 +17857,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
         <v>509</v>
       </c>
@@ -17730,7 +17973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
         <v>517</v>
       </c>
@@ -17846,7 +18089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
         <v>522</v>
       </c>
@@ -17960,7 +18203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
         <v>533</v>
       </c>
@@ -18078,12 +18321,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>537</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18094,7 +18337,7 @@
         <v>78</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>77</v>
@@ -18106,20 +18349,16 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>538</v>
+        <v>101</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>539</v>
+        <v>102</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>77</v>
       </c>
@@ -18167,39 +18406,39 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>537</v>
+        <v>104</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18207,10 +18446,10 @@
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>77</v>
@@ -18219,21 +18458,19 @@
         <v>77</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>548</v>
+        <v>108</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>549</v>
+        <v>192</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>550</v>
+        <v>193</v>
       </c>
       <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>77</v>
       </c>
@@ -18269,59 +18506,61 @@
         <v>77</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>547</v>
+        <v>115</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>552</v>
+        <v>77</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>87</v>
@@ -18336,13 +18575,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>101</v>
+        <v>543</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>103</v>
+        <v>545</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18393,25 +18632,25 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>77</v>
@@ -18420,23 +18659,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>77</v>
@@ -18448,17 +18687,15 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
         <v>77</v>
@@ -18495,31 +18732,31 @@
         <v>77</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AC142" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AD142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>77</v>
@@ -18534,12 +18771,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18550,7 +18787,7 @@
         <v>78</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>77</v>
@@ -18559,20 +18796,18 @@
         <v>77</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>556</v>
+        <v>192</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
         <v>77</v>
@@ -18609,37 +18844,37 @@
         <v>77</v>
       </c>
       <c r="AB143" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AC143" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>559</v>
+        <v>115</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>77</v>
@@ -18648,12 +18883,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18661,7 +18896,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>87</v>
@@ -18673,19 +18908,19 @@
         <v>77</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -18693,7 +18928,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>77</v>
+        <v>555</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -18711,11 +18946,13 @@
         <v>77</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y144" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z144" t="s" s="2">
-        <v>455</v>
+        <v>77</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>77</v>
@@ -18733,10 +18970,10 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>87</v>
@@ -18745,7 +18982,7 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
         <v>77</v>
@@ -18760,12 +18997,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18785,20 +19022,18 @@
         <v>77</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -18808,7 +19043,7 @@
         <v>77</v>
       </c>
       <c r="S145" t="s" s="2">
-        <v>77</v>
+        <v>561</v>
       </c>
       <c r="T145" t="s" s="2">
         <v>77</v>
@@ -18823,13 +19058,11 @@
         <v>77</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y145" s="2"/>
       <c r="Z145" t="s" s="2">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="AA145" t="s" s="2">
         <v>77</v>
@@ -18847,7 +19080,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -18865,7 +19098,7 @@
         <v>77</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>571</v>
+        <v>190</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>77</v>
@@ -18874,12 +19107,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -18887,7 +19120,7 @@
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>87</v>
@@ -18902,17 +19135,15 @@
         <v>88</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -18922,7 +19153,7 @@
         <v>77</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>77</v>
+        <v>568</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>77</v>
@@ -18937,13 +19168,13 @@
         <v>77</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>77</v>
+        <v>569</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>77</v>
@@ -18961,7 +19192,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>78</v>
@@ -18970,27 +19201,27 @@
         <v>87</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>77</v>
+        <v>572</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>77</v>
+        <v>573</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>190</v>
+        <v>574</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>77</v>
+        <v>575</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>577</v>
@@ -19001,34 +19232,34 @@
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="N147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>77</v>
@@ -19077,13 +19308,13 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>77</v>
@@ -19092,24 +19323,24 @@
         <v>99</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>77</v>
+        <v>583</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19126,22 +19357,26 @@
         <v>77</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>102</v>
+        <v>587</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
       </c>
@@ -19165,13 +19400,13 @@
         <v>77</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>77</v>
+        <v>592</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>77</v>
@@ -19189,7 +19424,7 @@
         <v>77</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>104</v>
+        <v>593</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>78</v>
@@ -19201,38 +19436,38 @@
         <v>77</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>77</v>
+        <v>594</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>105</v>
+        <v>595</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>77</v>
+        <v>596</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>77</v>
@@ -19241,19 +19476,19 @@
         <v>77</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>108</v>
+        <v>599</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>109</v>
+        <v>600</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>110</v>
+        <v>601</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>111</v>
+        <v>602</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -19303,22 +19538,22 @@
         <v>77</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>115</v>
+        <v>603</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>105</v>
@@ -19330,48 +19565,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>587</v>
+        <v>77</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J150" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>108</v>
+        <v>265</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>77</v>
       </c>
@@ -19419,39 +19650,39 @@
         <v>77</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>190</v>
+        <v>609</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19462,7 +19693,7 @@
         <v>78</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>77</v>
@@ -19474,17 +19705,19 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>237</v>
+        <v>611</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N151" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="O151" t="s" s="2">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -19509,13 +19742,13 @@
         <v>77</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>595</v>
+        <v>77</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>77</v>
@@ -19533,39 +19766,39 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH151" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>99</v>
+        <v>616</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>77</v>
+        <v>617</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>77</v>
+        <v>619</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19585,20 +19818,20 @@
         <v>77</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>77</v>
@@ -19647,7 +19880,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -19662,24 +19895,24 @@
         <v>99</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>603</v>
+        <v>438</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>604</v>
+        <v>625</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19690,7 +19923,7 @@
         <v>78</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>77</v>
@@ -19702,18 +19935,16 @@
         <v>77</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>523</v>
+        <v>101</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>524</v>
+        <v>102</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>525</v>
+        <v>103</v>
       </c>
       <c r="N153" s="2"/>
-      <c r="O153" t="s" s="2">
-        <v>606</v>
-      </c>
+      <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
         <v>77</v>
       </c>
@@ -19761,50 +19992,50 @@
         <v>77</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>605</v>
+        <v>104</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>607</v>
+        <v>77</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>530</v>
+        <v>77</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>531</v>
+        <v>105</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>532</v>
+        <v>77</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G154" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H154" t="s" s="2">
         <v>77</v>
@@ -19816,20 +20047,18 @@
         <v>77</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>539</v>
+        <v>109</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>77</v>
       </c>
@@ -19865,51 +20094,51 @@
         <v>77</v>
       </c>
       <c r="AB154" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AC154" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD154" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>608</v>
+        <v>115</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>544</v>
+        <v>77</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>546</v>
+        <v>77</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -19920,7 +20149,7 @@
         <v>78</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>77</v>
@@ -19929,21 +20158,21 @@
         <v>77</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>611</v>
+        <v>101</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>77</v>
       </c>
@@ -19991,16 +20220,16 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>77</v>
+        <v>633</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>99</v>
@@ -20009,16 +20238,1404 @@
         <v>77</v>
       </c>
       <c r="AL155" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM155" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN155" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" hidden="true">
+      <c r="A156" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G156" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K156" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M156" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O156" s="2"/>
+      <c r="P156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q156" s="2"/>
+      <c r="R156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X156" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y156" s="2"/>
+      <c r="Z156" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AA156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF156" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG156" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH156" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ156" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G157" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J157" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K157" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O157" s="2"/>
+      <c r="P157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q157" s="2"/>
+      <c r="R157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF157" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AG157" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH157" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ157" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AM157" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN157" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G158" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J158" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N158" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O158" s="2"/>
+      <c r="P158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q158" s="2"/>
+      <c r="R158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF158" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AG158" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH158" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ158" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM158" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN158" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" hidden="true">
+      <c r="A159" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K159" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N159" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="O159" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q159" s="2"/>
+      <c r="R159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" hidden="true">
+      <c r="A160" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G160" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q160" s="2"/>
+      <c r="R160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL160" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AM155" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN155" t="s" s="2">
+      <c r="AM160" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" hidden="true">
+      <c r="A161" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N161" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O161" s="2"/>
+      <c r="P161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q161" s="2"/>
+      <c r="R161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF161" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG161" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH161" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ161" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL161" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" hidden="true">
+      <c r="A162" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="N162" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="P162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q162" s="2"/>
+      <c r="R162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF162" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AG162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH162" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ162" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL162" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM162" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN162" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" hidden="true">
+      <c r="A163" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N163" s="2"/>
+      <c r="O163" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="P163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q163" s="2"/>
+      <c r="R163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X163" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y163" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="Z163" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AA163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF163" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AG163" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH163" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ163" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL163" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AM163" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN163" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" hidden="true">
+      <c r="A164" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M164" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="P164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q164" s="2"/>
+      <c r="R164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF164" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AG164" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH164" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ164" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" hidden="true">
+      <c r="A165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N165" s="2"/>
+      <c r="O165" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="P165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q165" s="2"/>
+      <c r="R165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE165" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AG165" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH165" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI165" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ165" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AK165" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" hidden="true">
+      <c r="A166" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O166" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="P166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q166" s="2"/>
+      <c r="R166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI166" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ166" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" hidden="true">
+      <c r="A167" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="P167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q167" s="2"/>
+      <c r="R167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN167" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN167">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI166">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>